--- a/biology/Médecine/Association_intercommunale_des_services_sociaux_et_de_santé_de_Savonie_du_Sud/Association_intercommunale_des_services_sociaux_et_de_santé_de_Savonie_du_Sud.xlsx
+++ b/biology/Médecine/Association_intercommunale_des_services_sociaux_et_de_santé_de_Savonie_du_Sud/Association_intercommunale_des_services_sociaux_et_de_santé_de_Savonie_du_Sud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_intercommunale_des_services_sociaux_et_de_sant%C3%A9_de_Savonie_du_Sud</t>
+          <t>Association_intercommunale_des_services_sociaux_et_de_santé_de_Savonie_du_Sud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association intercommunale des services sociaux et de santé de Savonie du Sud (finnois : Etelä-Savon sosiaali- ja terveyspalvelujen kuntayhtymä, sigle Essote ou SOSTERI) est un district hospitalier de la région de Savonie du Sud[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association intercommunale des services sociaux et de santé de Savonie du Sud (finnois : Etelä-Savon sosiaali- ja terveyspalvelujen kuntayhtymä, sigle Essote ou SOSTERI) est un district hospitalier de la région de Savonie du Sud.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_intercommunale_des_services_sociaux_et_de_sant%C3%A9_de_Savonie_du_Sud</t>
+          <t>Association_intercommunale_des_services_sociaux_et_de_santé_de_Savonie_du_Sud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le district hospitalier de Savonie du Sud offre ses services de santé à environ 100 226  habitants[2].
-En fin 2016, l'Essote employait 1599 personnes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le district hospitalier de Savonie du Sud offre ses services de santé à environ 100 226  habitants.
+En fin 2016, l'Essote employait 1599 personnes.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_intercommunale_des_services_sociaux_et_de_sant%C3%A9_de_Savonie_du_Sud</t>
+          <t>Association_intercommunale_des_services_sociaux_et_de_santé_de_Savonie_du_Sud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Municipalités membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La liste des municipalités membres est[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La liste des municipalités membres est:
 Hirvensalmi
 Joroinen
 Juva
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Association_intercommunale_des_services_sociaux_et_de_sant%C3%A9_de_Savonie_du_Sud</t>
+          <t>Association_intercommunale_des_services_sociaux_et_de_santé_de_Savonie_du_Sud</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les établissements hospitaliers sont[1]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les établissements hospitaliers sont:
 Hôpital central de Mikkeli
 Hôpital de Moisio
 Hôpital universitaire de Kuopio</t>
